--- a/biology/Botanique/Flore_méditerranéenne/Flore_méditerranéenne.xlsx
+++ b/biology/Botanique/Flore_méditerranéenne/Flore_méditerranéenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flore_m%C3%A9diterran%C3%A9enne</t>
+          <t>Flore_méditerranéenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>La flore méditerranéenne regroupe l'ensemble des espèces végétales qui forment la végétation spontanée caractéristique des régions de climat méditerranéen, ainsi que certaines espèces acclimatées qui s'y sont bien adaptées telles le mimosa et le figuier de Barbarie. Son aire d'extension correspond approximativement à l'aire de l'olivier. La flore méditerranéenne typique se trouve essentiellement dans les régions côtières de la Méditerranée caractérisées par des étés chauds et secs et par des hivers doux et plus humides, ainsi que dans certaines zones de l'arrière-pays aux hivers sensiblement plus rigoureux[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>La flore méditerranéenne regroupe l'ensemble des espèces végétales qui forment la végétation spontanée caractéristique des régions de climat méditerranéen, ainsi que certaines espèces acclimatées qui s'y sont bien adaptées telles le mimosa et le figuier de Barbarie. Son aire d'extension correspond approximativement à l'aire de l'olivier. La flore méditerranéenne typique se trouve essentiellement dans les régions côtières de la Méditerranée caractérisées par des étés chauds et secs et par des hivers doux et plus humides, ainsi que dans certaines zones de l'arrière-pays aux hivers sensiblement plus rigoureux.
 Acanthe, un genre (Acanthus) de plantes de la famille des Acanthacées.
 Acanthe à feuilles molles, Acanthus mollis
 Acanthe épineuse, Acanthus spinosus
